--- a/data/balance_sheet/3digits/total/856_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/856_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>856-Educational support activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>856-Educational support activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>12738.4894</v>
@@ -1484,38 +934,43 @@
         <v>15219.03648</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>23580.29677</v>
+        <v>23613.00062</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>45589.56922</v>
+        <v>45672.26635</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>101384.45866</v>
+        <v>101481.6652</v>
       </c>
       <c r="H5" s="33" t="n">
         <v>151448.71948</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>196252.81143</v>
+        <v>196876.28503</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>261346.73325</v>
+        <v>262259.78293</v>
       </c>
       <c r="K5" s="32" t="n">
-        <v>468931.34396</v>
+        <v>462214.32858</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>623983.51374</v>
+        <v>607850.3885499999</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>794754.0702900001</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>804362.74785</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>1100495.327</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>3772.5532</v>
@@ -1524,38 +979,43 @@
         <v>5261.92049</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>9792.26282</v>
+        <v>9821.98833</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>18035.44788</v>
+        <v>18116.61897</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>40618.31172999999</v>
+        <v>40619.75843</v>
       </c>
       <c r="H6" s="33" t="n">
         <v>58732.7518</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>67384.41215</v>
+        <v>67617.53968</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>122045.24908</v>
+        <v>122088.62972</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>82604.30277000001</v>
+        <v>82604.30276999999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>133603.46293</v>
+        <v>134613.90962</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>164245.9947</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>166374.3009</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>327211.126</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>1620.3316</v>
@@ -1564,38 +1024,43 @@
         <v>2502.82846</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>3397.54889</v>
+        <v>3420.84725</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>7163.761769999999</v>
+        <v>7239.99261</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>16376.9387</v>
+        <v>16377.77581</v>
       </c>
       <c r="H7" s="21" t="n">
         <v>20119.86947</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>24953.32624</v>
+        <v>24991.02781</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>25333.76254</v>
+        <v>25335.21341</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>33629.61382</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>38716.80506</v>
+        <v>39035.31117</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>39891.98328</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>40888.07196</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>61080.161</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>22.68965</v>
@@ -1607,7 +1072,7 @@
         <v>399.1679</v>
       </c>
       <c r="F8" s="21" t="n">
-        <v>396.12449</v>
+        <v>401.06474</v>
       </c>
       <c r="G8" s="22" t="n">
         <v>809.65663</v>
@@ -1628,14 +1093,19 @@
         <v>8049.77432</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>9729.33582</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>9670.12851</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>5773.262</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>1854.21915</v>
@@ -1650,32 +1120,37 @@
         <v>9317.214280000002</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>21898.89749</v>
+        <v>21899.50708</v>
       </c>
       <c r="H9" s="21" t="n">
         <v>35553.7421</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>36403.72597</v>
+        <v>36599.15193</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>88428.44592</v>
+        <v>88470.37569</v>
       </c>
       <c r="K9" s="22" t="n">
-        <v>75351.0886</v>
+        <v>75351.08859999999</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>81761.02903000001</v>
+        <v>82438.71872</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>108754.14444</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>109762.28413</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>251432.111</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>72.11482000000001</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>6060.8014</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>5155.092</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>347.42762</v>
@@ -1724,7 +1204,7 @@
         <v>380.85485</v>
       </c>
       <c r="E11" s="22" t="n">
-        <v>427.14588</v>
+        <v>433.57303</v>
       </c>
       <c r="F11" s="21" t="n">
         <v>1451.41734</v>
@@ -1742,20 +1222,25 @@
         <v>5273.55793</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>7021.56995</v>
+        <v>7021.569949999999</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>9442.28615</v>
+        <v>9456.537039999999</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>11931.33256</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>12114.6177</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>14080.684</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>472.61406</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>11967.52408</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>5571.681</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>2326.897</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>120.25225</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>831.91477</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>141.784</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>240.77881</v>
@@ -1905,17 +1405,22 @@
         <v>1229.54789</v>
       </c>
       <c r="L15" s="22" t="n">
-        <v>6622.861989999999</v>
+        <v>6622.86199</v>
       </c>
       <c r="M15" s="22" t="n">
         <v>9183.350400000001</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>872.8</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>111.583</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>1952.25831</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2230.2</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>3711.27562</v>
@@ -2010,35 +1525,40 @@
         <v>12223.5673</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>31270.49742</v>
+        <v>31274.98996</v>
       </c>
       <c r="H18" s="33" t="n">
         <v>52542.2055</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>75308.82988</v>
+        <v>75433.26355000002</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>58488.98557</v>
+        <v>58806.36715999999</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>100528.0976</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>185343.74286</v>
+        <v>185436.46818</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>263174.08185</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>267371.30618</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>301863.257</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
-        <v>3164.31027</v>
+        <v>3164.310269999999</v>
       </c>
       <c r="D19" s="22" t="n">
         <v>3308.11343</v>
@@ -2050,32 +1570,37 @@
         <v>10695.05849</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>27260.29401</v>
+        <v>27264.78655</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>45109.80687</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>66718.97038</v>
+        <v>66843.14353</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>48181.67666</v>
+        <v>48363.44668</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>85645.68551</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>133287.96807</v>
+        <v>133371.19339</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>216737.3778</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>219364.62269</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>231363.609</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>379.9117900000001</v>
@@ -2099,7 +1624,7 @@
         <v>6477.03871</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>8269.89237</v>
+        <v>8274.89237</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>11808.05305</v>
@@ -2108,14 +1633,19 @@
         <v>40038.2602</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>41145.44624</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>42590.29228</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>62592.28</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>981.0793299999999</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>1231.319</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>93.88468</v>
@@ -2216,26 +1756,31 @@
         <v>497.49387</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>608.0411</v>
+        <v>608.30162</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>965.6533599999999</v>
+        <v>966.25986</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>1176.26519</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>1407.23592</v>
+        <v>1416.73592</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>1329.65018</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>1366.88023</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>2197.338</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>23.18182</v>
@@ -2259,7 +1804,7 @@
         <v>1237.06426</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>780.3293899999999</v>
+        <v>910.3344599999999</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>1563.21671</v>
@@ -2268,14 +1813,19 @@
         <v>10972.52134</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>3046.250860000001</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>3134.15421</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>4319.316</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>132.3222</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>11379.30179</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>12517.673</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>82.33514</v>
@@ -2348,14 +1903,19 @@
         <v>8924.76597</v>
       </c>
       <c r="M26" s="22" t="n">
-        <v>9482.865690000001</v>
-      </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+        <v>9482.865689999999</v>
+      </c>
+      <c r="N26" s="22" t="n">
+        <v>9895.639999999999</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>1682.60348</v>
@@ -2364,38 +1924,43 @@
         <v>2694.58652</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>2574.16204</v>
+        <v>2574.52048</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>4386.47697</v>
+        <v>4386.835410000001</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>6936.996050000001</v>
+        <v>6936.99605</v>
       </c>
       <c r="H27" s="33" t="n">
         <v>9660.307629999999</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>12844.08209</v>
+        <v>12853.61783</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>20600.13168</v>
+        <v>20588.08938</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>32313.14584</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>34018.3878</v>
+        <v>34093.57806</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>69603.98534</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>69991.82689999999</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>100038.738</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>1559.46451</v>
@@ -2416,26 +1981,31 @@
         <v>4952.81113</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>7882.49246</v>
+        <v>7882.492459999999</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>8469.994460000002</v>
+        <v>8470.03716</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>16979.44996</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>15866.40977</v>
+        <v>15928.85982</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>29455.81791000001</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>29802.21392</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>61833.65</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>366.48694</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>44.457</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>278.18421</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>541.9109999999999</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2542,7 +2122,7 @@
         <v>68.15051</v>
       </c>
       <c r="K31" s="22" t="n">
-        <v>57.55964999999999</v>
+        <v>57.55965</v>
       </c>
       <c r="L31" s="22" t="n">
         <v>167.07069</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>191.43017</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>122.861</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>123.13897</v>
@@ -2564,10 +2149,10 @@
         <v>304.21492</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>519.1343499999999</v>
+        <v>519.49279</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>1237.75288</v>
+        <v>1238.11132</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>1892.06636</v>
@@ -2576,26 +2161,31 @@
         <v>2348.36113</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>4408.11231</v>
+        <v>4417.64805</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>11419.46932</v>
+        <v>11407.38432</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>14884.61713</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>17399.34594</v>
+        <v>17412.08615</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>39312.06611</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>39353.51166</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>37495.859</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>1682.88852</v>
@@ -2724,38 +2329,43 @@
         <v>1863.14784</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>3752.18755</v>
+        <v>3752.56981</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>6646.79332</v>
+        <v>6646.793320000001</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>13295.6765</v>
+        <v>13380.2577</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>14701.78871</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>22612.50657</v>
+        <v>22737.6189</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>33127.51934</v>
+        <v>33504.45079</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>84189.59024</v>
+        <v>84189.59023999999</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>124436.47541</v>
+        <v>124549.23304</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>163886.55462</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>165753.74984</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>225750.341</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>67.75429</v>
@@ -2770,7 +2380,7 @@
         <v>835.6404600000001</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>894.9823100000001</v>
+        <v>977.32239</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>1202.4396</v>
@@ -2782,20 +2392,25 @@
         <v>3621.27075</v>
       </c>
       <c r="K37" s="22" t="n">
-        <v>7803.380280000001</v>
+        <v>7803.38028</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>11874.653</v>
+        <v>11876.7728</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>17198.33856</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>17340.7415</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>14188.922</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>39.73563</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>5035.05092</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>4484.343</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>29.76714</v>
@@ -2868,23 +2488,28 @@
         <v>4118.85877</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>4641.19443</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>4690.556820000001</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>4856.861</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>957.93804</v>
+        <v>957.9380399999999</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>959.29662</v>
       </c>
       <c r="E40" s="22" t="n">
-        <v>1262.36314</v>
+        <v>1262.7454</v>
       </c>
       <c r="F40" s="21" t="n">
         <v>2035.6226</v>
@@ -2899,23 +2524,28 @@
         <v>7746.42489</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>9948.596439999999</v>
+        <v>10003.94187</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>18534.18934</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>33003.91598000001</v>
+        <v>33042.48328</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>45719.96944</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>46103.58378</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>62145.597</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>95.45317</v>
@@ -2933,10 +2563,10 @@
         <v>1130.02056</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>919.3821399999999</v>
+        <v>919.38214</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>1493.98917</v>
+        <v>1494.70917</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>2162.20181</v>
@@ -2948,14 +2578,19 @@
         <v>8765.400170000001</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>11155.79495</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>11177.30903</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>15571.751</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>742.24654</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>492.24025</v>
@@ -3010,32 +2650,37 @@
         <v>3190.94829</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>6810.65104</v>
+        <v>6812.89216</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>8454.205880000001</v>
+        <v>8454.20588</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>10162.61205</v>
+        <v>10287.00438</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>13636.29114</v>
+        <v>13957.87716</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>47187.46057</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>63406.46642</v>
+        <v>63478.53695</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>80878.45286</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>82148.75433</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>124502.867</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3062,20 +2707,25 @@
         <v>88.83625000000001</v>
       </c>
       <c r="K44" s="23" t="n">
-        <v>7503.21011</v>
+        <v>786.1947299999999</v>
       </c>
       <c r="L44" s="23" t="n">
-        <v>19699.07375</v>
+        <v>1909.78827</v>
       </c>
       <c r="M44" s="23" t="n">
         <v>2445.00159</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>4040.595</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3102,20 +2752,25 @@
         <v>86.71914</v>
       </c>
       <c r="K45" s="22" t="n">
-        <v>7303.21011</v>
+        <v>586.1947299999999</v>
       </c>
       <c r="L45" s="22" t="n">
-        <v>19221.85875</v>
+        <v>1432.57327</v>
       </c>
       <c r="M45" s="22" t="n">
         <v>2445.00159</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>4040.595</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>251.27571</v>
@@ -3204,38 +2869,43 @@
         <v>136.63455</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>167.87911</v>
+        <v>168.41899</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>817.89399</v>
+        <v>818.43387</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>2029.32392</v>
+        <v>2032.01698</v>
       </c>
       <c r="H48" s="45" t="n">
         <v>1544.48076</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>3283.25381</v>
+        <v>3311.79552</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>7055.922810000001</v>
+        <v>7055.519850000001</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>65458.13124</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>17375.61451</v>
+        <v>17382.28859</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>19450.37188</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>19578.18886</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>22090.262</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>173.49013</v>
@@ -3244,38 +2914,43 @@
         <v>117.81097</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>152.17935</v>
+        <v>152.71923</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>716.5129599999999</v>
+        <v>717.0528400000001</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>1955.19549</v>
+        <v>1957.88855</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>1520.09676</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>3043.38277</v>
+        <v>3071.92448</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>5330.049410000001</v>
+        <v>5329.646449999999</v>
       </c>
       <c r="K49" s="22" t="n">
-        <v>65123.74438999999</v>
+        <v>65123.74439</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>12042.34147</v>
+        <v>12048.77667</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>15245.04031</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>15368.9714</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>16956.414</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>77.78558</v>
@@ -3290,7 +2965,7 @@
         <v>101.38103</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>74.12842999999999</v>
+        <v>74.12843000000001</v>
       </c>
       <c r="H50" s="21" t="n">
         <v>24.384</v>
@@ -3305,17 +2980,22 @@
         <v>334.38685</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>5333.273039999999</v>
+        <v>5333.51192</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>4205.33157</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>4209.21746</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>5133.848</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>1165.27881</v>
@@ -3324,38 +3004,43 @@
         <v>870.2442900000001</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>1620.57903</v>
+        <v>1622.27679</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>2581.34551</v>
+        <v>2581.973230000001</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>5795.46261</v>
+        <v>5799.455650000001</v>
       </c>
       <c r="H51" s="45" t="n">
         <v>12053.15924</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>12711.6131</v>
+        <v>12814.33572</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>18238.39204</v>
+        <v>18426.1933</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>93285.80452999999</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>100141.82613</v>
+        <v>100500.19244</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>99980.55622999999</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>100880.8495</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>113929.327</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>856.96719</v>
@@ -3364,38 +3049,43 @@
         <v>610.1722199999999</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>1186.6313</v>
+        <v>1188.32906</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>1558.53713</v>
+        <v>1559.16485</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>3735.86469</v>
+        <v>3737.25908</v>
       </c>
       <c r="H52" s="21" t="n">
         <v>9693.27893</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>10097.09009</v>
+        <v>10176.03922</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>14143.96484</v>
+        <v>14334.3279</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>87762.04261</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>88763.37592999999</v>
+        <v>89120.40446999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>82803.94935000001</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>83334.55431000001</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>93791.395</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>1.08228</v>
@@ -3425,17 +3115,22 @@
         <v>194.68246</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>156.44151</v>
+        <v>157.0112</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>2024.072</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1994.86296</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>401.531</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3459,7 +3154,7 @@
         <v>27.47674</v>
       </c>
       <c r="J54" s="21" t="n">
-        <v>95.39528</v>
+        <v>98.39528</v>
       </c>
       <c r="K54" s="22" t="n">
         <v>17.96453</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>31.80965</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>27.612</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>180.58105</v>
@@ -3490,32 +3190,37 @@
         <v>233.93865</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>750.20064</v>
+        <v>752.79929</v>
       </c>
       <c r="H55" s="21" t="n">
         <v>812.1424000000001</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>946.37411</v>
+        <v>969.84024</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>1427.71439</v>
+        <v>1422.15259</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>1581.53014</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>2982.66432</v>
+        <v>2984.99053</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>3106.04873</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>3137.49479</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>4002.33</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>109.28844</v>
@@ -3536,7 +3241,7 @@
         <v>1305.40409</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>1475.76664</v>
+        <v>1476.074</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>2387.14494</v>
@@ -3548,14 +3253,19 @@
         <v>6630.09987</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>10554.7081</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>11197.25294</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>12870.219</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>17.35985</v>
@@ -3585,17 +3295,22 @@
         <v>140.36022</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>430.4993</v>
+        <v>430.4993000000001</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>290.25566</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>308.49654</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>827.778</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0.00273</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3665,16 +3385,21 @@
         <v>36.96031</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>1139.32905</v>
+        <v>1137.77092</v>
       </c>
       <c r="M59" s="22" t="n">
-        <v>1169.71001</v>
-      </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+        <v>876.37558</v>
+      </c>
+      <c r="N59" s="22" t="n">
+        <v>2008.441</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>11212.28876</v>
@@ -3723,38 +3453,43 @@
         <v>12711.63861</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>17461.4589</v>
+        <v>17463.72541</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>22826.73866</v>
+        <v>22857.25729</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>39720.32818</v>
+        <v>39861.07978</v>
       </c>
       <c r="H61" s="37" t="n">
         <v>88565.98462</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>100321.15814</v>
+        <v>100583.53763</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>221050.48856</v>
+        <v>222024.53454</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>766079.2366299999</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>876343.39811</v>
+        <v>878128.3645700001</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>763062.57209</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>767471.6699600001</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>1202884.077</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>39.31039999999999</v>
@@ -3775,10 +3510,10 @@
         <v>247.06563</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>910.1274199999999</v>
+        <v>915.1274199999999</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>1772.69512</v>
+        <v>1783.87897</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>2303.54472</v>
@@ -3787,14 +3522,19 @@
         <v>3111.09874</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>20424.41855</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>20431.83266</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>24144.169</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>41.21265</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>58.937</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>18933.964</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>19780.736</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>39.31039999999999</v>
@@ -3975,10 +3735,10 @@
         <v>227.61897</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>350.12742</v>
+        <v>355.12742</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>789.43319</v>
+        <v>800.6170400000001</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>1225.77815</v>
@@ -3987,14 +3747,19 @@
         <v>2112.77206</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>1449.2419</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>1456.65601</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>4304.496</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>30.17927</v>
@@ -4067,14 +3837,19 @@
         <v>3328.20723</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>5925.38525</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>5988.40804</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>5815.475</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0</v>
@@ -4107,14 +3882,19 @@
         <v>2295.77711</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>4654.16928</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>4717.19207</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>4737.172</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>562.99703</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>694.8049999999999</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>94.14307000000001</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>438.26915</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>30.17927</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>175.80672</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>383.498</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>139.39808</v>
@@ -4378,7 +4188,7 @@
         <v>1161.36071</v>
       </c>
       <c r="J77" s="33" t="n">
-        <v>1344.26071</v>
+        <v>1133.05082</v>
       </c>
       <c r="K77" s="23" t="n">
         <v>1592.39471</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>1524.81863</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>362336.792</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>1</v>
@@ -4418,7 +4233,7 @@
         <v>211.60989</v>
       </c>
       <c r="J78" s="21" t="n">
-        <v>211.85989</v>
+        <v>0.65</v>
       </c>
       <c r="K78" s="22" t="n">
         <v>211.85989</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>211.85989</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>211.86</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>90.45</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>1204.40874</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>362330.682</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>18.75</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>217.75</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>82.97</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>127.3</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>80</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>35.02192</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>68</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>9529.562900000001</v>
@@ -4803,38 +4668,43 @@
         <v>10763.96905</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>14598.93696</v>
+        <v>14601.20347</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>17852.46861</v>
+        <v>17882.98724</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>29347.23374</v>
+        <v>29370.85685</v>
       </c>
       <c r="H88" s="33" t="n">
         <v>64716.54828</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>71386.67200000001</v>
+        <v>71597.02531</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>182252.88901</v>
+        <v>182649.01764</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>590165.39182</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>664505.50637</v>
+        <v>666145.67677</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>650399.1031999999</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>653906.2767</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>713457.2</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>5076.14</v>
@@ -4864,17 +4734,22 @@
         <v>28652.58239</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>73418.80405000001</v>
+        <v>73658.80404999999</v>
       </c>
       <c r="M89" s="22" t="n">
         <v>40302.57263</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>42192.172</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>1.89912</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>2.62712</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>315.747</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>1577.45946</v>
@@ -4941,20 +4821,25 @@
         <v>17935.31985</v>
       </c>
       <c r="K91" s="22" t="n">
-        <v>463633.5582800001</v>
+        <v>463633.55828</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>469715.61326</v>
+        <v>470465.61326</v>
       </c>
       <c r="M91" s="22" t="n">
         <v>526852.10906</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>565836.197</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>116.78448</v>
@@ -4984,17 +4869,22 @@
         <v>3574.60797</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>23909.66429</v>
+        <v>23925.21954</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>25144.43834</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>25251.2014</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>32904.417</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>1830.26869</v>
@@ -5006,7 +4896,7 @@
         <v>3623.70021</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>6408.204890000001</v>
+        <v>6427.50274</v>
       </c>
       <c r="G93" s="22" t="n">
         <v>14196.95492</v>
@@ -5015,26 +4905,31 @@
         <v>23534.87596</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>30462.04391</v>
+        <v>30545.28391</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>26071.6892</v>
       </c>
       <c r="K93" s="22" t="n">
-        <v>43890.43472999999</v>
+        <v>43890.43473</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>58541.30173000001</v>
+        <v>58989.26885000001</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>68094.08768</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>69691.77894</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>88171.709</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>4086.83657</v>
@@ -5043,38 +4938,43 @@
         <v>4625.55538</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>6165.70439</v>
+        <v>6169.01041</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>8741.31042</v>
+        <v>8758.676440000001</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>15310.32909</v>
+        <v>15340.87168</v>
       </c>
       <c r="H94" s="21" t="n">
         <v>24244.69987</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>29058.98806</v>
+        <v>29211.80401</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>38838.92143</v>
+        <v>39313.03451999999</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>48231.00789</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>63671.19689</v>
+        <v>64057.92969</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>81744.23534</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>84038.09925</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>107026.882</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>0</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>72.61382</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>143.482</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>3202.57845</v>
@@ -5123,38 +5028,43 @@
         <v>3592.83362</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>4161.44717</v>
+        <v>4162.48668</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>5779.913640000001</v>
+        <v>5786.05888</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>11111.67546</v>
+        <v>11123.78216</v>
       </c>
       <c r="H96" s="21" t="n">
         <v>22122.07757</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>28668.26389</v>
+        <v>28693.96653</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>32750.28648999999</v>
+        <v>32828.27095</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>47817.31788</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>72844.49103</v>
+        <v>73044.57579999999</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>105009.22369</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>105500.36842</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>136612.411</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>40.04192</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>12008.71715</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>11841.449</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>2.71111</v>
@@ -5209,7 +5124,7 @@
         <v>27.4164</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>6.106310000000001</v>
+        <v>11.29353</v>
       </c>
       <c r="H98" s="21" t="n">
         <v>466.25116</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>1186.92575</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>1637.556</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>1141.80904</v>
@@ -5249,32 +5169,37 @@
         <v>3009.81975</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>5219.10726</v>
+        <v>5326.22239</v>
       </c>
       <c r="H99" s="33" t="n">
         <v>17297.78232</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>18320.98762</v>
+        <v>18351.38071</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>19571.19866</v>
+        <v>19977.97117</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>17136.27141</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>38743.10482</v>
+        <v>38771.75226</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>46168.6223</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>46730.24231</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>50338.185</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>137.26723</v>
@@ -5289,32 +5214,37 @@
         <v>2270.55927</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>2694.70938</v>
+        <v>2797.69279</v>
       </c>
       <c r="H100" s="21" t="n">
         <v>2558.55139</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>2880.47885</v>
+        <v>2888.21221</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>4368.9496</v>
+        <v>4377.89758</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>6207.002769999999</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>8660.74936</v>
+        <v>8660.749360000002</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>10179.24669</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>10329.00127</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>17889.943</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>43.03704</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>43.037</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>44.38617</v>
@@ -5369,32 +5304,37 @@
         <v>246.73685</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>330.9333600000001</v>
+        <v>330.93336</v>
       </c>
       <c r="H102" s="21" t="n">
         <v>600.0586999999999</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>740.1968000000001</v>
+        <v>742.1968000000001</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>623.46659</v>
+        <v>626.79113</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>669.4729500000001</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>675.8041400000001</v>
+        <v>701.22515</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>682.41423</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>731.2681200000001</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>814.1420000000001</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>99.75869999999999</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>291.406</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>1802.7402</v>
@@ -5449,32 +5394,37 @@
         <v>2807.87209</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>4785.9349</v>
+        <v>4817.73151</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>18664.83762</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>21063.16913</v>
+        <v>21091.98269</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>22336.31522</v>
+        <v>22758.87041</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>15278.65667</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>43901.31393</v>
+        <v>43910.28141</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>53786.17535000001</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>54182.78768000001</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>65487.768</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>151.28413</v>
@@ -5495,26 +5445,31 @@
         <v>560.6645</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>782.96647</v>
+        <v>782.9664700000001</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>730.0509099999999</v>
+        <v>730.05091</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>591.66638</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>769.78363</v>
+        <v>771.95492</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>1517.67523</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>1517.87523</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>4056.654</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1093.62739</v>
@@ -5529,32 +5484,37 @@
         <v>2787.81531</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>3423.5173</v>
+        <v>3451.18219</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>5612.633080000001</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>7709.94173</v>
+        <v>7718.09556</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>8774.72731</v>
+        <v>8802.782509999999</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>5872.006119999999</v>
+        <v>5872.00612</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>15358.59958</v>
+        <v>15366.51192</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>20050.4392</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>20084.23999</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>38260.365</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>10.51296</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>12.37441</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>12.37441</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>331.10983</v>
@@ -5843,38 +5838,43 @@
         <v>450.5085</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>710.36833</v>
+        <v>710.3683300000001</v>
       </c>
       <c r="F114" s="33" t="n">
         <v>1680.53377</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>2779.33149</v>
+        <v>2789.34485</v>
       </c>
       <c r="H114" s="33" t="n">
         <v>3862.83528</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>5596.709699999999</v>
+        <v>5613.34279</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>9196.27331</v>
+        <v>9567.44419</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>149997.10132</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>157964.78178</v>
+        <v>158083.41959</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>31337.12779</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>31606.99525</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>38166.722</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>331.10983</v>
@@ -5883,38 +5883,43 @@
         <v>450.5085</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>710.36833</v>
+        <v>710.3683300000001</v>
       </c>
       <c r="F115" s="21" t="n">
         <v>1678.9234</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>2753.53308</v>
+        <v>2763.54644</v>
       </c>
       <c r="H115" s="21" t="n">
         <v>3520.20364</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>5596.709699999999</v>
+        <v>5613.34279</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>9196.27331</v>
+        <v>9567.44419</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>149997.10132</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>157963.88022</v>
+        <v>158082.51803</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>31336.34457</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>31606.21203</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>37714.976</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0.78322</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>451.746</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0.9192400000000001</v>
@@ -5984,17 +5994,22 @@
         <v>1325.82971</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>7138.68103</v>
+        <v>7136.191839999999</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>7270.72196</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>8613.16</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.19473</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>4.17152</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>14.473</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>2.09254</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>2.093</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>620.4174499999999</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>1181.33</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0.72451</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>27.24483</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>19.659</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6224,17 +6264,22 @@
         <v>0</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>1578.91336</v>
+        <v>1576.42416</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>1575.95566</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>1576.611</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>8.691330000000001</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>11.282</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>1314.34642</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>5136.654769999999</v>
+        <v>5136.654779999999</v>
       </c>
       <c r="M126" s="22" t="n">
         <v>5049.53129</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>5830.276</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>23950.77816</v>
@@ -6363,35 +6423,38 @@
         <v>27930.67509</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>41041.75567</v>
+        <v>41076.72603</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>68416.30788000001</v>
+        <v>68529.52364</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>141104.78684</v>
+        <v>141342.74498</v>
       </c>
       <c r="H127" s="33" t="n">
         <v>240014.7041</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>296573.96957</v>
+        <v>297459.8226599999</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>482397.22181</v>
+        <v>484284.31747</v>
       </c>
       <c r="K127" s="23" t="n">
-        <v>1235010.58059</v>
+        <v>1228293.56521</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1500326.91185</v>
+        <v>1485978.75312</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1557816.64238</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1571834.41781</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>2303379.404</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>856-Educational support activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>12323.38467</v>
@@ -6495,38 +6572,43 @@
         <v>14315.38688</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>22729.57681</v>
+        <v>22733.99368</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>43392.65863000001</v>
+        <v>43418.35773</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>97219.46937999999</v>
+        <v>97339.11997</v>
       </c>
       <c r="H132" s="33" t="n">
         <v>132842.84334</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>182313.97216</v>
+        <v>183678.30378</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>326110.1373100001</v>
+        <v>327502.00049</v>
       </c>
       <c r="K132" s="23" t="n">
-        <v>622406.33318</v>
+        <v>615689.3178</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>862422.51255</v>
+        <v>850829.9197800001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>947014.49971</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>963105.80894</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1103533.206</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>620.03385</v>
@@ -6541,32 +6623,37 @@
         <v>2323.95189</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>6190.69</v>
+        <v>6203.48764</v>
       </c>
       <c r="H133" s="33" t="n">
         <v>10680.04911</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>11205.69653</v>
+        <v>11221.05165</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>13633.11135</v>
+        <v>13696.22344</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>69228.66821999999</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>73803.33229000001</v>
+        <v>73803.37211</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>53330.34339</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>53426.03661</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>88681.92200000001</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>588.65655</v>
@@ -6581,32 +6668,37 @@
         <v>2094.26118</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>5993.413570000002</v>
+        <v>6006.21121</v>
       </c>
       <c r="H134" s="21" t="n">
         <v>10410.46219</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>9777.45609</v>
+        <v>9792.13178</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>11012.97263</v>
+        <v>11076.08472</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>36835.53279</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>63261.75471</v>
+        <v>63261.79453</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>49130.92864</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>49279.36461</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>83448.883</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>203.45413</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>545.002</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>34.04616</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>88.11499999999999</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>22.1872</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2861.73628</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>3537.565</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>9.190100000000001</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0.02611</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6907,26 +7034,31 @@
         <v>135.17376</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>287.2127</v>
+        <v>287.89213</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>289.89957</v>
       </c>
       <c r="K142" s="22" t="n">
-        <v>618.3232999999999</v>
+        <v>618.3233</v>
       </c>
       <c r="L142" s="22" t="n">
         <v>1093.50628</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>1168.24439</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>1115.50164</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>1238.561</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>3104.03516</v>
@@ -6941,32 +7073,37 @@
         <v>10918.24754</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>30060.23874</v>
+        <v>30066.90654</v>
       </c>
       <c r="H143" s="45" t="n">
         <v>44699.35335</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>56599.98721000001</v>
+        <v>56687.96914</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>68576.15737999999</v>
+        <v>69055.78853999999</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>181141.85966</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>302644.36559</v>
+        <v>304179.2655</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>385463.81468</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>389288.62051</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>388426.802</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>2588.70498</v>
@@ -6978,35 +7115,40 @@
         <v>4401.61893</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>7937.487609999999</v>
+        <v>7937.48761</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>27007.8513</v>
+        <v>27012.2881</v>
       </c>
       <c r="H144" s="24" t="n">
         <v>40051.26744</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>49989.62131</v>
+        <v>50077.60324</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>56889.74081</v>
+        <v>57063.29562</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>156743.49167</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>227375.96856</v>
+        <v>228790.06918</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>328448.2798</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>331289.63618</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>326343.351</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>227.87653</v>
@@ -7030,23 +7172,28 @@
         <v>3480.02177</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>5569.92197</v>
+        <v>5867.13697</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>12023.47545</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>48524.20029</v>
+        <v>48611.52257</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>31088.71084</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>31843.26484</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>28792.309</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>27.28686</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>222.502</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>2681.99763</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>4593.365</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>287.45365</v>
@@ -7141,7 +7298,7 @@
         <v>1284.62553</v>
       </c>
       <c r="G148" s="25" t="n">
-        <v>1556.05674</v>
+        <v>1558.28774</v>
       </c>
       <c r="H148" s="24" t="n">
         <v>2819.27215</v>
@@ -7150,26 +7307,31 @@
         <v>2955.66088</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>5700.28833</v>
+        <v>5709.14968</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>11545.89969</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>25201.93207</v>
+        <v>25235.40908</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>23272.11327</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>23501.00872</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>28920.279</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
-        <v>5606.791859999999</v>
+        <v>5606.79186</v>
       </c>
       <c r="D149" s="23" t="n">
         <v>6983.525050000001</v>
@@ -7181,32 +7343,37 @@
         <v>16026.41066</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>34732.59195</v>
+        <v>34827.84129</v>
       </c>
       <c r="H149" s="33" t="n">
         <v>46131.78046</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>65714.31371</v>
+        <v>66737.77702000001</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>161536.84876</v>
+        <v>162027.46415</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>208919.21903</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>316556.99181</v>
+        <v>320965.41849</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>312988.96112</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>320181.82789</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>346798.089</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>4832.91497</v>
@@ -7221,32 +7388,37 @@
         <v>12492.48289</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>28084.00629</v>
+        <v>28179.25563</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>34428.11870000001</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>50753.18712</v>
+        <v>51740.00725</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>142778.37361</v>
+        <v>143169.86159</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>178227.70333</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>217240.25158</v>
+        <v>221261.95634</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>245285.47459</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>251345.70193</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>274893.602</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>1097.53953</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>1137.449</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7319,14 +7496,19 @@
         <v>3857.88166</v>
       </c>
       <c r="M152" s="22" t="n">
-        <v>4439.67295</v>
-      </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+        <v>4440.785849999999</v>
+      </c>
+      <c r="N152" s="22" t="n">
+        <v>4820.011</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>131.36508</v>
@@ -7347,26 +7529,31 @@
         <v>2384.36633</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>4545.874519999999</v>
+        <v>4574.7177</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>5836.7247</v>
+        <v>5877.28812</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>9087.920199999999</v>
+        <v>9087.9202</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>15166.2238</v>
+        <v>15272.60457</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>18156.75561</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>18316.03489</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>20896.444</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>642.5118100000001</v>
@@ -7387,26 +7574,31 @@
         <v>8537.938109999999</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>7833.02743</v>
+        <v>7840.827429999999</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>9530.220469999998</v>
+        <v>9588.784460000001</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>16741.39637</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>78999.40101</v>
+        <v>79279.74215999999</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>44009.51844</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>44981.76569</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>45050.583</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>941.07444</v>
@@ -7467,26 +7664,31 @@
         <v>12836.3913</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>21148.91548</v>
+        <v>21278.63585</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>49782.3848</v>
+        <v>50118.0348</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>49216.72403</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>74109.93983</v>
+        <v>74261.12557999999</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>96062.01201999999</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>98681.78393999999</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>142249.14</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>926.63973</v>
@@ -7507,7 +7709,7 @@
         <v>12619.48202</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>19820.79677</v>
+        <v>19950.51714</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>28031.27632</v>
@@ -7516,17 +7718,22 @@
         <v>44540.1233</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>49621.82414</v>
+        <v>49773.00989</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>89010.69511</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>91630.46703</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>131962.894</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>14.43471</v>
@@ -7550,10 +7757,10 @@
         <v>1328.11871</v>
       </c>
       <c r="J158" s="21" t="n">
-        <v>21751.10848</v>
+        <v>22086.75848</v>
       </c>
       <c r="K158" s="22" t="n">
-        <v>4676.600729999999</v>
+        <v>4676.60073</v>
       </c>
       <c r="L158" s="22" t="n">
         <v>24488.11569</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>7051.31691</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>10286.246</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7593,20 +7805,25 @@
         <v>0</v>
       </c>
       <c r="K159" s="23" t="n">
-        <v>7477.05037</v>
+        <v>760.03499</v>
       </c>
       <c r="L159" s="23" t="n">
-        <v>20669.43348</v>
+        <v>2880.148</v>
       </c>
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>2843.041</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7633,20 +7850,25 @@
         <v>0</v>
       </c>
       <c r="K160" s="22" t="n">
-        <v>7477.05037</v>
+        <v>760.03499</v>
       </c>
       <c r="L160" s="22" t="n">
-        <v>20669.43348</v>
+        <v>2880.148</v>
       </c>
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>2843.041</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>1753.52453</v>
@@ -7695,78 +7922,88 @@
         <v>1855.4554</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>2647.19966</v>
+        <v>2650.14938</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>4811.32503</v>
+        <v>4822.75581</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>10921.23777</v>
+        <v>10926.17358</v>
       </c>
       <c r="H162" s="33" t="n">
         <v>15362.72892</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>23119.61735</v>
+        <v>23211.25198</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>26929.82982</v>
+        <v>26952.68436</v>
       </c>
       <c r="K162" s="23" t="n">
-        <v>38048.63248000001</v>
+        <v>38048.63248</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>50691.0195</v>
+        <v>50862.8247</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>68657.79107000001</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>70935.43634</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>92083.63400000001</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>824.1430799999999</v>
+        <v>824.1430800000001</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>1079.09478</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>1449.02006</v>
+        <v>1451.05325</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>2658.46705</v>
+        <v>2668.9813</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>5576.64805</v>
+        <v>5579.05864</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>7407.86061</v>
+        <v>7407.860610000001</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>11649.85908</v>
+        <v>11696.14428</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>11362.42739</v>
+        <v>11372.01712</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>15901.35749</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>20477.98933</v>
+        <v>20587.18916</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>27083.52114</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>28038.58412</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>35222.081</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>342.25777</v>
@@ -7775,38 +8012,43 @@
         <v>319.43849</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>520.1235899999999</v>
+        <v>521.04012</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>1123.61384</v>
+        <v>1124.53037</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>2008.36686</v>
+        <v>2009.0104</v>
       </c>
       <c r="H164" s="21" t="n">
         <v>3574.48602</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>4766.19865</v>
+        <v>4811.54808</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>6156.05404</v>
+        <v>6172.25304</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>10850.0554</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>14079.38911</v>
+        <v>14122.93573</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>18942.37727</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>19706.36189</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>23677.765</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>587.12368</v>
@@ -7830,23 +8072,28 @@
         <v>6677.151049999999</v>
       </c>
       <c r="J165" s="21" t="n">
-        <v>9263.367039999999</v>
+        <v>9260.432849999999</v>
       </c>
       <c r="K165" s="22" t="n">
         <v>11164.31505</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>15845.31428</v>
+        <v>15864.37303</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>22366.09943</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>22917.67796</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>32758.158</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0</v>
@@ -7861,7 +8108,7 @@
         <v>4.695069999999999</v>
       </c>
       <c r="G166" s="22" t="n">
-        <v>16.1058</v>
+        <v>17.98748</v>
       </c>
       <c r="H166" s="21" t="n">
         <v>30.09821</v>
@@ -7879,14 +8126,19 @@
         <v>288.32678</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>265.79323</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>272.81237</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>425.63</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>255.24631</v>
@@ -7895,10 +8147,10 @@
         <v>324.83219</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>349.0995599999999</v>
+        <v>350.56671</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>456.33447</v>
+        <v>470.60279</v>
       </c>
       <c r="G167" s="23" t="n">
         <v>1279.99444</v>
@@ -7907,7 +8159,7 @@
         <v>1590.34398</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>2811.06315</v>
+        <v>2825.51916</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>2234.57658</v>
@@ -7916,38 +8168,43 @@
         <v>3081.49071</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>3050.76568</v>
+        <v>3072.79756</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>4020.58393</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>4082.03214</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>7603.596</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
-        <v>396.8297900000001</v>
+        <v>396.82979</v>
       </c>
       <c r="D168" s="22" t="n">
         <v>459.74362</v>
       </c>
       <c r="E168" s="22" t="n">
-        <v>812.5891799999999</v>
+        <v>814.0563300000001</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>1230.34434</v>
+        <v>1244.61266</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>2479.39561</v>
+        <v>2480.53135</v>
       </c>
       <c r="H168" s="21" t="n">
         <v>3616.47714</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>5278.92352</v>
+        <v>5279.23583</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>5761.147</v>
@@ -7956,17 +8213,22 @@
         <v>7650.54268</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>9332.733829999999</v>
+        <v>9371.017460000001</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>11697.08492</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>11830.01641</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>18362.859</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>141.58348</v>
@@ -7978,16 +8240,16 @@
         <v>463.48962</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>774.00987</v>
+        <v>774.0098699999999</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>1199.40117</v>
+        <v>1200.53691</v>
       </c>
       <c r="H169" s="21" t="n">
         <v>2045.72256</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>2474.675650000001</v>
+        <v>2460.53195</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>3556.5883</v>
@@ -7996,17 +8258,22 @@
         <v>4572.76904</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>6291.42735</v>
+        <v>6307.679099999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>7743.11078</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>7814.594059999999</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>10844.224</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>5.675479999999999</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>11.967</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>14.50487</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>67.22799999999999</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>46.42944</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>5.766</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>39.72651999999999</v>
@@ -8147,7 +8429,7 @@
         <v>1262.72791</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>1061.03267</v>
+        <v>1062.75292</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>2768.76053</v>
@@ -8156,17 +8438,22 @@
         <v>64952.14710999999</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>20556.65417</v>
+        <v>20573.95417</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>25662.00722</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>25730.49655</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>34304.027</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>20963.17326</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>22693.188</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>39.72651999999999</v>
@@ -8227,7 +8519,7 @@
         <v>1077.96123</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>676.1064</v>
+        <v>677.82665</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>1199.81416</v>
@@ -8236,17 +8528,22 @@
         <v>58537.50274999999</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>13503.5964</v>
+        <v>13520.8964</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>4698.83396</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>4767.32329</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>11610.839</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>2.952</v>
@@ -8276,17 +8573,22 @@
         <v>340.54157</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>340.0102</v>
+        <v>231.01367</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>828.9862800000001</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>779.57496</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>542.955</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>2.952</v>
@@ -8316,17 +8618,22 @@
         <v>337.99111</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>226.03431</v>
+        <v>226.75431</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>804.89136</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>732.82852</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>327.353</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>5.08992</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>6.402</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>19.005</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>209.2</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8476,17 +8798,22 @@
         <v>0</v>
       </c>
       <c r="L181" s="35" t="n">
-        <v>109.71654</v>
+        <v>1e-05</v>
       </c>
       <c r="M181" s="35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+        <v>22.65152</v>
+      </c>
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>988.0120599999999</v>
@@ -8501,32 +8828,37 @@
         <v>3684.89928</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>6212.7626</v>
+        <v>6254.083460000001</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>39729.86073000001</v>
+        <v>39729.86073</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>42567.53525</v>
+        <v>42694.4517</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>100014.49171</v>
+        <v>101314.70296</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>519995.01826</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>577106.8642899999</v>
+        <v>577125.55635</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>521585.73979</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>523570.73624</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>604360.977</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>186.23085</v>
@@ -8541,16 +8873,16 @@
         <v>1063.39978</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>2100.66561</v>
+        <v>2141.98647</v>
       </c>
       <c r="H183" s="33" t="n">
         <v>31350.1275</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>32113.44776</v>
+        <v>32240.36421</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>83380.44318</v>
+        <v>84630.78415000001</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>352852.74319</v>
@@ -8559,14 +8891,19 @@
         <v>399831.99936</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>442873.46916</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>443679.8549</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>501369.097</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>186.23085</v>
@@ -8581,32 +8918,37 @@
         <v>1039.04311</v>
       </c>
       <c r="G184" s="22" t="n">
-        <v>1861.96411</v>
+        <v>1903.28497</v>
       </c>
       <c r="H184" s="21" t="n">
         <v>31350.1275</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>32106.96894</v>
+        <v>32233.88539</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>83380.44318</v>
+        <v>84630.78415000001</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>352833.39514</v>
+        <v>352833.3951399999</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>399653.46652</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>442762.00889</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>443568.39463</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>500816.417</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>0</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>111.46027</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>563.052</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>26.065</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>15.693</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>100</v>
@@ -8876,17 +9248,22 @@
         <v>2582.10175</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>2847.27648</v>
+        <v>2847.27649</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>29666.93424</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>35586.519</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8916,17 +9293,22 @@
         <v>892.94975</v>
       </c>
       <c r="L192" s="22" t="n">
-        <v>1295.47944</v>
+        <v>1295.47945</v>
       </c>
       <c r="M192" s="22" t="n">
         <v>1827.41199</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>2188.026</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>26715.6365</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>32103.013</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>100</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>131.2</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>362.195</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>992.68575</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>933.285</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>700.20739</v>
@@ -9110,23 +9512,28 @@
         <v>8920.57243</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>14701.55932</v>
+        <v>14751.4296</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>26781.5346</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>32916.23343</v>
+        <v>32934.92548</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>39830.11003</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>40727.51748</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>59056.033</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>604.24137</v>
@@ -9150,23 +9557,28 @@
         <v>8482.406919999999</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>12273.88971</v>
+        <v>12323.75999</v>
       </c>
       <c r="K198" s="22" t="n">
         <v>24305.32322</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>29960.93168</v>
+        <v>29979.62373</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>36649.13396</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>37493.15419</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>40837.401</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>85</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>95.96602</v>
@@ -9236,17 +9653,22 @@
         <v>1166.6246</v>
       </c>
       <c r="L200" s="22" t="n">
-        <v>600.1801599999999</v>
+        <v>600.18016</v>
       </c>
       <c r="M200" s="22" t="n">
         <v>1544.79543</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>12012.73</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9279,14 +9701,19 @@
         <v>881.999</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>881.999</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>935.38622</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>4369.492</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>0</v>
@@ -9359,14 +9791,19 @@
         <v>1473.12259</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>754.1816399999999</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>754.18164</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>1751.41</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>1.57382</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>1252.45425</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>1012.137</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>1.57382</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>460.33301</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>402.04</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>792.1212399999999</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>610.097</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>620.9263000000001</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>580.769</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>620.9263000000001</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>580.769</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>0</v>
@@ -9639,14 +10106,19 @@
         <v>140666.8247</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>7341.845810000001</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>7623.04907</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>6755.613</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9679,14 +10151,19 @@
         <v>4852.655870000001</v>
       </c>
       <c r="M211" s="22" t="n">
-        <v>6936.13503</v>
-      </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+        <v>6936.136030000001</v>
+      </c>
+      <c r="N211" s="22" t="n">
+        <v>6383.178</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9719,14 +10196,19 @@
         <v>135814.16883</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>405.71078</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>686.91304</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>372.435</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.8090000000000001</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>10639.38143</v>
@@ -9895,38 +10397,43 @@
         <v>12681.89654</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>16257.84123</v>
+        <v>16288.39472</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>21338.74997</v>
+        <v>21426.26663</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>37672.55486</v>
+        <v>37749.54154999999</v>
       </c>
       <c r="H217" s="33" t="n">
         <v>67442.00003</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>71692.46216000001</v>
+        <v>71087.06718000001</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>56272.59279</v>
+        <v>55467.61401999999</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>92609.22914999998</v>
+        <v>92609.22915</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>60797.53501000001</v>
+        <v>58023.27698999999</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>89216.40287999999</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>85157.87263</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>595485.221</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>17241.57799</v>
@@ -9935,22 +10442,22 @@
         <v>17495.84571</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>24492.98777</v>
+        <v>24517.68777</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>32336.89813</v>
+        <v>32361.59813</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>53674.06009</v>
+        <v>53724.06009000001</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>76491.28926000001</v>
+        <v>76491.28925999999</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>83388.08622</v>
+        <v>83680.78621999999</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>92386.39072</v>
+        <v>92662.52499999999</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>143859.28386</v>
@@ -9959,14 +10466,19 @@
         <v>181392.56298</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>247040.32339</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>248403.82339</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>688318.374</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>14518.63637</v>
@@ -9975,38 +10487,43 @@
         <v>15284.7765</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>27754.51378</v>
+        <v>27804.51378</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>38105.54763</v>
+        <v>38155.54763</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>67475.74205</v>
+        <v>67525.74205</v>
       </c>
       <c r="H219" s="21" t="n">
         <v>88354.24059</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>97321.17552</v>
+        <v>97741.17551999999</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>110514.04531</v>
+        <v>110795.64531</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>167931.40671</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>213325.60486</v>
+        <v>221541.60486</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>289149.70487</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>306280.20487</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>775635.233</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>3252.18111</v>
@@ -10015,10 +10532,10 @@
         <v>3659.95358</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>9132.146550000001</v>
+        <v>9157.446550000001</v>
       </c>
       <c r="F220" s="21" t="n">
-        <v>11688.68196</v>
+        <v>11713.98196</v>
       </c>
       <c r="G220" s="22" t="n">
         <v>20224.69456</v>
@@ -10027,26 +10544,31 @@
         <v>17524.91577</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>19506.16387</v>
+        <v>19633.46387</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>23666.87164</v>
+        <v>23650.77164</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>25338.40413</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>33128.69401</v>
+        <v>41344.69401</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>43360.87777000001</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>59127.87777000001</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>88491.18799999999</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5978.054109999999</v>
@@ -10070,7 +10592,7 @@
         <v>5576.00595</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>5539.21705</v>
+        <v>5517.65133</v>
       </c>
       <c r="K221" s="22" t="n">
         <v>1266.28128</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>1251.49629</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>1174.329</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>2.93138</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>171.05039</v>
@@ -10150,7 +10682,7 @@
         <v>926.47162</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>1890.19981</v>
+        <v>2781.37038</v>
       </c>
       <c r="K223" s="23" t="n">
         <v>3024.96522</v>
@@ -10159,14 +10691,19 @@
         <v>3080.87368</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>9292.344489999999</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>9598.344489999999</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>56176.334</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0.59782</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>7.927140000000001</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>46.705</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>436.28291</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>436.283</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>170.45257</v>
@@ -10430,7 +10997,7 @@
         <v>915.49573</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>1878.11951</v>
+        <v>2769.29008</v>
       </c>
       <c r="K230" s="22" t="n">
         <v>3003.69808</v>
@@ -10439,14 +11006,19 @@
         <v>2367.86363</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>8839.334439999999</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>9145.334439999999</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>55684.546</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>2199.83861</v>
@@ -10461,16 +11033,16 @@
         <v>2635.41517</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>6622.16765</v>
+        <v>6622.167649999999</v>
       </c>
       <c r="H231" s="33" t="n">
         <v>12614.66036</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>12957.28472</v>
+        <v>12957.61511</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>23434.25767</v>
+        <v>23434.2398</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>8753.020369999998</v>
@@ -10479,14 +11051,19 @@
         <v>10910.04073</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>11557.52563</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>11566.87542</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>35155.73</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>551.50375</v>
@@ -10507,10 +11084,10 @@
         <v>1881.50919</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>2060.45201</v>
+        <v>2060.7824</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>2454.52365</v>
+        <v>2454.51806</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>2340.6535</v>
@@ -10519,14 +11096,19 @@
         <v>2989.28224</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>4293.22115</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>4302.57094</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>5850.383</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>0.06809</v>
@@ -10550,7 +11132,7 @@
         <v>119.26341</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>145.58737</v>
+        <v>145.57509</v>
       </c>
       <c r="K233" s="22" t="n">
         <v>185.56279</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>279.54873</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>249.385</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>1466.63731</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>4028.89728</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>24504.409</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>30.62946</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>70.54781</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>659.099</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>151</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>2885.31066</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>3892.454</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>3307.01973</v>
@@ -10698,35 +11300,40 @@
         <v>6026.8766</v>
       </c>
       <c r="F237" s="33" t="n">
-        <v>10704.87142</v>
+        <v>10710.72491</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>22780.24392</v>
+        <v>22855.37306</v>
       </c>
       <c r="H237" s="33" t="n">
         <v>44580.91335</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>49754.83387</v>
+        <v>49880.85032</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>58138.21440999999</v>
+        <v>58082.21126999999</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>76706.84629999999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>105124.70796</v>
+        <v>105751.75651</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>136988.27175</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>138720.85593</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>183041.867</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-11907.48491</v>
@@ -10741,32 +11348,37 @@
         <v>-19767.9484</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-41495.74098</v>
+        <v>-41547.04219000001</v>
       </c>
       <c r="H238" s="33" t="n">
         <v>-53987.8258</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-77209.37166999999</v>
+        <v>-77245.04189000001</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-100543.2351</v>
+        <v>-102176.05008</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-126853.86113</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-179959.51771</v>
+        <v>-182379.97133</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-260209.75697</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-263229.15815</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-358610.14</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-372.62038</v>
@@ -10775,38 +11387,43 @@
         <v>667.83336</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>-3737.18369</v>
+        <v>-3731.3302</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>-5449.9032</v>
+        <v>-5392.940030000001</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>-6102.33882</v>
+        <v>-6099.18006</v>
       </c>
       <c r="H239" s="33" t="n">
         <v>-14674.0485</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>1875.1574</v>
+        <v>886.3857999999998</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-19033.23472</v>
+        <v>-19316.68235</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-12881.02547</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-59751.13263</v>
+        <v>-60731.98558000001</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-55452.30541</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-59902.86845</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-8596.944</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>2289.01533</v>
@@ -10815,38 +11432,43 @@
         <v>2887.73982</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>3685.98111</v>
+        <v>3691.8346</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>5971.103029999999</v>
+        <v>6028.0662</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>13616.16964</v>
+        <v>13619.3284</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>18790.90817</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>32429.94292</v>
+        <v>32511.76641</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>30214.98495</v>
+        <v>30211.42832</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>49076.628</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>45574.73904</v>
+        <v>46260.15382</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>61749.51269</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>62409.72552</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>113427.915</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>2661.63571</v>
@@ -10867,63 +11489,71 @@
         <v>33464.95667</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>30554.78552</v>
+        <v>31625.38061</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>49248.21967</v>
+        <v>49528.11067</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>61957.65347</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>105325.87167</v>
+        <v>106992.1394</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>117201.8181</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>122312.59397</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>122024.859</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>23950.77816</v>
+        <v>23950.77816000001</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>27930.67509</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>41041.75567</v>
+        <v>41076.72603</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>68416.30787999999</v>
+        <v>68529.52364000001</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>141104.78684</v>
+        <v>141342.74498</v>
       </c>
       <c r="H242" s="48" t="n">
         <v>240014.7041</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>296573.9695700001</v>
+        <v>297459.82266</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>482397.22181</v>
+        <v>484284.31747</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>1235010.58059</v>
+        <v>1228293.56521</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1500326.91185</v>
+        <v>1485978.75312</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1557816.64238</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1571834.41781</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>2303379.404</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>147</v>
@@ -10951,35 +11584,38 @@
         <v>159</v>
       </c>
       <c r="E244" s="52" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="H244" s="53" t="n">
         <v>1057</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>1228</v>
+        <v>1235</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>1337</v>
+        <v>1350</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>1490</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>1544</v>
+        <v>1640</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>1677</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>1870</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>2167</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>